--- a/Respirador COVID19NIC.xlsx
+++ b/Respirador COVID19NIC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="378">
   <si>
     <t>Arduino</t>
   </si>
@@ -1054,12 +1054,6 @@
     <t>8ruedas, bracito 3 en desde ruedas (AMBU queda deformado)</t>
   </si>
   <si>
-    <t>bracito</t>
-  </si>
-  <si>
-    <t>1=cortito 4= largote</t>
-  </si>
-  <si>
     <t>Longitud bracito</t>
   </si>
   <si>
@@ -1150,16 +1144,106 @@
     <t>30 a 31</t>
   </si>
   <si>
-    <t>SALTA</t>
-  </si>
-  <si>
-    <t>recortar mecate y fijar</t>
-  </si>
-  <si>
     <t>Mecate tilinte despues de 2 horas</t>
   </si>
   <si>
     <t>Schottky USB quemado,no 5v</t>
+  </si>
+  <si>
+    <t>560a600</t>
+  </si>
+  <si>
+    <t>360a400</t>
+  </si>
+  <si>
+    <t>VentMon</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Añadir soporte adicional ambu</t>
+  </si>
+  <si>
+    <t>25 a 28</t>
+  </si>
+  <si>
+    <t>Historial equipos</t>
+  </si>
+  <si>
+    <t>Entregado a Aram, no news</t>
+  </si>
+  <si>
+    <t>Entregado Heidi</t>
+  </si>
+  <si>
+    <t>Lester tecnico Chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo probaron como ventilador, no funciono </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  usaron pulmon no compliant y no lo pudo inflar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No dio el volumen reportado</t>
+  </si>
+  <si>
+    <t>Recomienda uso ambulatorio (traslados a managua)</t>
+  </si>
+  <si>
+    <t>Alarma no se apagaba (no usaron reset)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No tenia el ritmo RPM indicado</t>
+  </si>
+  <si>
+    <t>Mas fuerza al motor ( el ambu muy duro…)</t>
+  </si>
+  <si>
+    <t>Intensivistas ni lo vieron</t>
+  </si>
+  <si>
+    <t>bracito 1=cortito 4= largote</t>
+  </si>
+  <si>
+    <t>TCiclo Tiempo ciclo (mili s)</t>
+  </si>
+  <si>
+    <t>Duracion total respiraciones para un minuto (s)</t>
+  </si>
+  <si>
+    <t>segundos tardan las medidas y actividades colaterales por ciclo</t>
+  </si>
+  <si>
+    <t>Tentrepasos calculato menos tiempos adicionales</t>
+  </si>
+  <si>
+    <t>factor inspiratorio</t>
+  </si>
+  <si>
+    <t>CPM</t>
+  </si>
+  <si>
+    <t>duracion  insp (milis)</t>
+  </si>
+  <si>
+    <t>tiempo del ciclo (millis)</t>
+  </si>
+  <si>
+    <t>micros</t>
+  </si>
+  <si>
+    <t>a 300 pasos/ insp por dos</t>
+  </si>
+  <si>
+    <t>Ver20 Debug</t>
+  </si>
+  <si>
+    <t>Terminado equipo dual Eq08</t>
+  </si>
+  <si>
+    <t>Haciendo modificaciones equipo 5 para dual con placa base escudo</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1583,6 +1667,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1592,7 +1758,7 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1805,11 +1971,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1831,18 +1992,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Énfasis5" xfId="3" builtinId="48"/>
@@ -1852,27 +2056,7 @@
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3109,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3334,25 +3518,25 @@
         <v>6.666666666666667E-5</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="46" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E18" s="6">
         <f xml:space="preserve"> 1/100000</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H18" s="6">
         <f>60/E18</f>
@@ -3361,16 +3545,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3706,9 +3890,145 @@
       <c r="G35" s="67"/>
       <c r="H35" s="75"/>
     </row>
+    <row r="39" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>16</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3725</v>
+      </c>
+      <c r="C40" s="8">
+        <f>(+B40/1000)*A40</f>
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>18.7</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3208</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" ref="C41:C45" si="5">(+B41/1000)*A41</f>
+        <v>59.989600000000003</v>
+      </c>
+    </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E42">
-        <v>1.0197442889221098</v>
+      <c r="A42" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2702</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="5"/>
+        <v>59.984399999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>25</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2400</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>22.3</v>
+      </c>
+      <c r="B44">
+        <v>2690</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>59.987000000000002</v>
+      </c>
+      <c r="E44">
+        <f>+D45*1000000/600</f>
+        <v>987.12618526622884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>18.28</v>
+      </c>
+      <c r="B45">
+        <v>2690</v>
+      </c>
+      <c r="C45" s="21">
+        <f t="shared" si="5"/>
+        <v>49.173200000000001</v>
+      </c>
+      <c r="D45">
+        <f>(60-C45)/A45</f>
+        <v>0.59227571115973732</v>
+      </c>
+      <c r="E45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>370</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <f>60000/A49</f>
+        <v>5000</v>
+      </c>
+      <c r="C49">
+        <v>0.42</v>
+      </c>
+      <c r="D49">
+        <f>+B49*C49</f>
+        <v>2100</v>
+      </c>
+      <c r="E49">
+        <f>+D49*1000</f>
+        <v>2100000</v>
+      </c>
+      <c r="F49">
+        <f>+E49/600</f>
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
@@ -3726,7 +4046,7 @@
   <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3829,12 +4149,12 @@
       <c r="A11" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="139" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6"/>
@@ -4638,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R56"/>
+  <dimension ref="A2:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4660,12 +4980,12 @@
     <col min="16" max="16" width="8.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I3" s="6" t="s">
         <v>279</v>
       </c>
@@ -4673,7 +4993,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>267</v>
       </c>
@@ -4690,10 +5010,10 @@
         <v>269</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -4704,13 +5024,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -4721,7 +5041,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="21">
         <v>2</v>
       </c>
@@ -4732,7 +5052,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="21">
         <v>3</v>
       </c>
@@ -4743,7 +5063,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="21">
         <v>4</v>
       </c>
@@ -4760,7 +5080,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -4774,7 +5094,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="21">
         <v>6</v>
       </c>
@@ -4787,11 +5107,9 @@
       <c r="F11" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" s="21">
         <v>7</v>
       </c>
@@ -4802,717 +5120,885 @@
         <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="21">
+        <v>8</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="G22" s="112" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="117"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="J23" s="119"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="M23" s="120" t="s">
+        <v>288</v>
+      </c>
+      <c r="N23" s="121" t="s">
+        <v>289</v>
+      </c>
+      <c r="O23" s="105" t="s">
+        <v>290</v>
+      </c>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="123"/>
+    </row>
+    <row r="24" spans="1:17" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="124"/>
+      <c r="H24" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="126"/>
+    </row>
+    <row r="25" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="124"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="103">
+        <v>1.4</v>
+      </c>
+      <c r="M25" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="N25" s="108">
+        <v>1.5</v>
+      </c>
+      <c r="O25" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="126"/>
+    </row>
+    <row r="26" spans="1:17" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G26" s="124" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="125"/>
+      <c r="I26" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="M26" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="N26" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="O26" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="126"/>
+    </row>
+    <row r="27" spans="1:17" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27" s="124"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="127" t="s">
+        <v>293</v>
+      </c>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="N27" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="126"/>
+    </row>
+    <row r="28" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="110">
+        <v>2</v>
+      </c>
+      <c r="N28" s="110">
+        <v>1</v>
+      </c>
+      <c r="O28" s="103"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="126"/>
+    </row>
+    <row r="29" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="103">
+        <v>4</v>
+      </c>
+      <c r="M29" s="103">
+        <v>8</v>
+      </c>
+      <c r="N29" s="103">
+        <v>8</v>
+      </c>
+      <c r="O29" s="103"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="126"/>
+    </row>
+    <row r="30" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="111">
+        <v>44034</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="100"/>
+      <c r="G30" s="124" t="s">
+        <v>364</v>
+      </c>
+      <c r="H30" s="125"/>
+      <c r="I30" s="127" t="s">
+        <v>314</v>
+      </c>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="103">
+        <v>2</v>
+      </c>
+      <c r="M30" s="103">
+        <v>3</v>
+      </c>
+      <c r="N30" s="103">
+        <v>3</v>
+      </c>
+      <c r="O30" s="103"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="126"/>
+    </row>
+    <row r="31" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G31" s="124"/>
+      <c r="H31" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="126"/>
+    </row>
+    <row r="32" spans="1:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D32" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I32" s="129" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N32" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="126"/>
+    </row>
+    <row r="33" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D33" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G33" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="H33" s="125">
+        <v>1.2</v>
+      </c>
+      <c r="I33" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N33" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O33" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="123"/>
+    </row>
+    <row r="34" spans="3:17" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D34" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G34" s="124" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="125">
+        <v>1.3</v>
+      </c>
+      <c r="I34" s="129" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N34" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O34" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="123"/>
+    </row>
+    <row r="35" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D35" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G35" s="124" t="s">
+        <v>309</v>
+      </c>
+      <c r="H35" s="125">
+        <v>1.4</v>
+      </c>
+      <c r="I35" s="129" t="s">
+        <v>282</v>
+      </c>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M35" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N35" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="123"/>
+    </row>
+    <row r="36" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D36" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G36" s="124" t="s">
+        <v>310</v>
+      </c>
+      <c r="H36" s="125">
+        <v>1.5</v>
+      </c>
+      <c r="I36" s="129" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N36" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O36" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="123"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D37" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="123"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D38" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G38" s="118"/>
+      <c r="H38" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="130"/>
+    </row>
+    <row r="39" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G39" s="118"/>
+      <c r="H39" s="119">
+        <v>1.6</v>
+      </c>
+      <c r="I39" s="129" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N39" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O39" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="123"/>
+    </row>
+    <row r="40" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C40" s="141">
+        <v>44075</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119">
+        <v>1.7</v>
+      </c>
+      <c r="I40" s="129" t="s">
+        <v>302</v>
+      </c>
+      <c r="J40" s="129"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N40" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O40" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="123"/>
+    </row>
+    <row r="41" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C41" s="141">
+        <v>44079</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" s="118"/>
+      <c r="H41" s="119">
+        <v>1.8</v>
+      </c>
+      <c r="I41" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N41" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O41" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="123"/>
+    </row>
+    <row r="42" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G42" s="118"/>
+      <c r="H42" s="119">
+        <v>1.9</v>
+      </c>
+      <c r="I42" s="129" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" s="129"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="N42" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="O42" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="123"/>
+    </row>
+    <row r="43" spans="3:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="118"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="123"/>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="G44" s="118"/>
+      <c r="H44" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="123"/>
+    </row>
+    <row r="45" spans="3:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="118"/>
+      <c r="H45" s="119">
+        <v>2.1</v>
+      </c>
+      <c r="I45" s="131" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" s="131"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="N45" s="110">
+        <v>150</v>
+      </c>
+      <c r="O45" s="106"/>
+      <c r="P45" s="140" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q45" s="123"/>
+    </row>
+    <row r="46" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G46" s="118"/>
+      <c r="H46" s="119">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I46" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="106"/>
+      <c r="M46" s="110" t="s">
+        <v>341</v>
+      </c>
+      <c r="N46" s="132" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" s="106"/>
+      <c r="P46" s="140"/>
+      <c r="Q46" s="123"/>
+    </row>
+    <row r="47" spans="3:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="118"/>
+      <c r="H47" s="119">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I47" s="131" t="s">
+        <v>336</v>
+      </c>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="110" t="s">
+        <v>338</v>
+      </c>
+      <c r="N47" s="132" t="s">
+        <v>346</v>
+      </c>
+      <c r="O47" s="106"/>
+      <c r="P47" s="140"/>
+      <c r="Q47" s="123"/>
+    </row>
+    <row r="48" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G48" s="118"/>
+      <c r="H48" s="119">
+        <v>2.4</v>
+      </c>
+      <c r="I48" s="131" t="s">
+        <v>318</v>
+      </c>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="110">
+        <v>16</v>
+      </c>
+      <c r="N48" s="110">
+        <v>16</v>
+      </c>
+      <c r="O48" s="106"/>
+      <c r="P48" s="140"/>
+      <c r="Q48" s="123"/>
+    </row>
+    <row r="49" spans="7:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G49" s="118"/>
+      <c r="H49" s="119">
+        <v>2.5</v>
+      </c>
+      <c r="I49" s="131" t="s">
+        <v>319</v>
+      </c>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="N49" s="110" t="s">
+        <v>343</v>
+      </c>
+      <c r="O49" s="106"/>
+      <c r="P49" s="140"/>
+      <c r="Q49" s="123" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="7:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G50" s="118"/>
+      <c r="H50" s="119">
+        <v>2.6</v>
+      </c>
+      <c r="I50" s="131" t="s">
+        <v>285</v>
+      </c>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="21">
-        <v>8</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="G21" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="M21" s="104" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I22" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="O22" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="113" t="s">
-        <v>327</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="108" t="s">
-        <v>346</v>
-      </c>
-      <c r="O23" s="105"/>
-      <c r="Q23" s="108" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="4"/>
-      <c r="I24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="106">
-        <v>1.4</v>
-      </c>
-      <c r="M24" s="106">
-        <v>1.5</v>
-      </c>
-      <c r="N24" s="111">
-        <v>1.5</v>
-      </c>
-      <c r="O24" s="106">
-        <v>1.5</v>
-      </c>
-      <c r="Q24" s="111">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="G25" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="M25" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="N25" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="O25" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q25" s="106" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I26" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="106" t="s">
-        <v>221</v>
-      </c>
-      <c r="M26" s="106" t="s">
-        <v>221</v>
-      </c>
-      <c r="N26" s="106" t="s">
-        <v>221</v>
-      </c>
-      <c r="O26" s="106" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q26" s="106" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I27" s="114" t="s">
-        <v>337</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106">
-        <v>2</v>
-      </c>
-      <c r="N27" s="109">
-        <v>4</v>
-      </c>
-      <c r="O27" s="106"/>
-      <c r="Q27" s="117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I28" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="106">
-        <v>4</v>
-      </c>
-      <c r="M28" s="106">
-        <v>8</v>
-      </c>
-      <c r="N28" s="106">
-        <v>8</v>
-      </c>
-      <c r="O28" s="106"/>
-      <c r="Q28" s="106">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="100" t="s">
-        <v>314</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="106">
-        <v>2</v>
-      </c>
-      <c r="M29" s="106">
+      <c r="N50" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="O50" s="106"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="123"/>
+    </row>
+    <row r="51" spans="7:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G51" s="118"/>
+      <c r="H51" s="119">
+        <v>2.7</v>
+      </c>
+      <c r="I51" s="131" t="s">
+        <v>321</v>
+      </c>
+      <c r="J51" s="131"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="N51" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="O51" s="106"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="123"/>
+    </row>
+    <row r="52" spans="7:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G52" s="118"/>
+      <c r="H52" s="119">
+        <v>2.8</v>
+      </c>
+      <c r="I52" s="131" t="s">
+        <v>322</v>
+      </c>
+      <c r="J52" s="131"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="N52" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="O52" s="106"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="123"/>
+    </row>
+    <row r="53" spans="7:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G53" s="118"/>
+      <c r="H53" s="119">
+        <v>2.9</v>
+      </c>
+      <c r="I53" s="131" t="s">
+        <v>283</v>
+      </c>
+      <c r="J53" s="131"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="N53" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="O53" s="106"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="123"/>
+    </row>
+    <row r="54" spans="7:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G54" s="118"/>
+      <c r="H54" s="119">
         <v>3</v>
       </c>
-      <c r="N29" s="106">
-        <v>3</v>
-      </c>
-      <c r="O29" s="106"/>
-      <c r="Q29" s="106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H30" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="Q30" s="106"/>
-    </row>
-    <row r="31" spans="2:17" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H31" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I31" s="102" t="s">
-        <v>294</v>
-      </c>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M31" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N31" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O31" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q31" s="109"/>
-    </row>
-    <row r="32" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="G32" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I32" s="102" t="s">
-        <v>295</v>
-      </c>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M32" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N32" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O32" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q32" s="109"/>
-    </row>
-    <row r="33" spans="7:18" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="G33" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="I33" s="102" t="s">
-        <v>298</v>
-      </c>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M33" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N33" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O33" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q33" s="109"/>
-    </row>
-    <row r="34" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="G34" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="I34" s="102" t="s">
-        <v>282</v>
-      </c>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M34" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N34" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O34" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q34" s="109"/>
-    </row>
-    <row r="35" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="G35" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="102" t="s">
-        <v>284</v>
-      </c>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M35" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N35" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O35" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q35" s="109"/>
-    </row>
-    <row r="36" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
-      <c r="Q36" s="107"/>
-    </row>
-    <row r="37" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="H37" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="14"/>
-    </row>
-    <row r="38" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H38">
-        <v>1.6</v>
-      </c>
-      <c r="I38" s="102" t="s">
-        <v>318</v>
-      </c>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M38" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N38" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O38" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q38" s="109" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H39">
-        <v>1.7</v>
-      </c>
-      <c r="I39" s="102" t="s">
-        <v>302</v>
-      </c>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M39" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N39" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O39" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q39" s="109" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H40">
-        <v>1.8</v>
-      </c>
-      <c r="I40" s="102" t="s">
-        <v>303</v>
-      </c>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M40" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N40" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O40" s="109" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q40" s="109" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H41" s="21">
-        <v>1.9</v>
-      </c>
-      <c r="I41" s="102" t="s">
-        <v>304</v>
-      </c>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="M41" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="N41" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="O41" s="109" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q41" s="109" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="7:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="107"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="107"/>
-    </row>
-    <row r="43" spans="7:18" x14ac:dyDescent="0.2">
-      <c r="H43" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="L43" s="107"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
-      <c r="Q43" s="107"/>
-    </row>
-    <row r="44" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="21">
-        <v>2.1</v>
-      </c>
-      <c r="I44" s="103" t="s">
-        <v>341</v>
-      </c>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="116" t="s">
+      <c r="I54" s="131" t="s">
+        <v>299</v>
+      </c>
+      <c r="J54" s="131"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="N54" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="O54" s="107"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="123"/>
+    </row>
+    <row r="55" spans="7:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="133"/>
+      <c r="H55" s="134">
+        <v>3.1</v>
+      </c>
+      <c r="I55" s="135" t="s">
         <v>344</v>
       </c>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="115" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H45" s="21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I45" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="116" t="s">
-        <v>343</v>
-      </c>
-      <c r="N45" s="109"/>
-      <c r="O45" s="109"/>
-      <c r="P45" s="115"/>
-    </row>
-    <row r="46" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H46" s="21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I46" s="103" t="s">
-        <v>338</v>
-      </c>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="116" t="s">
-        <v>340</v>
-      </c>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="115"/>
-    </row>
-    <row r="47" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="H47" s="21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I47" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="116">
-        <v>16</v>
-      </c>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="115"/>
-    </row>
-    <row r="48" spans="7:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I48" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="116" t="s">
-        <v>345</v>
-      </c>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="115"/>
-    </row>
-    <row r="49" spans="9:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="109"/>
-      <c r="M49" s="109"/>
-      <c r="N49" s="109"/>
-      <c r="O49" s="109"/>
-    </row>
-    <row r="50" spans="9:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I50" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="109" t="s">
-        <v>221</v>
-      </c>
-      <c r="N50" s="109"/>
-      <c r="O50" s="109"/>
-    </row>
-    <row r="51" spans="9:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I51" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="109"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="109"/>
-      <c r="O51" s="109"/>
-    </row>
-    <row r="52" spans="9:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I52" s="103" t="s">
-        <v>324</v>
-      </c>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="109"/>
-      <c r="O52" s="109"/>
-    </row>
-    <row r="53" spans="9:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="109"/>
-    </row>
-    <row r="54" spans="9:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I54" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="N54" s="109"/>
-      <c r="O54" s="109"/>
-    </row>
-    <row r="55" spans="9:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I55" s="103" t="s">
-        <v>299</v>
-      </c>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
-      <c r="L55" s="110"/>
-      <c r="M55" s="110"/>
-      <c r="N55" s="110"/>
-      <c r="O55" s="110"/>
-    </row>
-    <row r="56" spans="9:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="I56" s="103" t="s">
-        <v>348</v>
-      </c>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
+      <c r="J55" s="135"/>
+      <c r="K55" s="135"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="136" t="s">
+        <v>349</v>
+      </c>
+      <c r="N55" s="136" t="s">
+        <v>349</v>
+      </c>
+      <c r="O55" s="137"/>
+      <c r="P55" s="137"/>
+      <c r="Q55" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P44:P48"/>
+    <mergeCell ref="P45:P49"/>
   </mergeCells>
-  <conditionalFormatting sqref="L22:O24 L25:L27 N25:O27 L28:O44 L46:O55">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="L23:O25 L26:L28 N26:O28 L29:O45 L47:M47 O47 L48:O49 O54 N54:N55 L50:L54 N50:O53">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M27">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="M26:M28">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45:O45">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="L46:M46 O46">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:Q43">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="M50:M55">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Respirador COVID19NIC.xlsx
+++ b/Respirador COVID19NIC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="378">
   <si>
     <t>Arduino</t>
   </si>
@@ -2040,13 +2040,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Énfasis5" xfId="3" builtinId="48"/>
@@ -2547,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D56" sqref="D56:E58"/>
     </sheetView>
   </sheetViews>
@@ -4149,12 +4149,12 @@
       <c r="A11" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="140" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6"/>
@@ -4958,10 +4958,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5114,7 +5117,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="21">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -5142,7 +5145,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -5155,10 +5158,28 @@
       <c r="B15" s="21">
         <v>9</v>
       </c>
+      <c r="C15" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16" s="21">
         <v>10</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -5629,7 +5650,7 @@
       <c r="Q39" s="123"/>
     </row>
     <row r="40" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C40" s="141">
+      <c r="C40" s="139">
         <v>44075</v>
       </c>
       <c r="D40" s="21" t="s">
@@ -5660,7 +5681,7 @@
       <c r="Q40" s="123"/>
     </row>
     <row r="41" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C41" s="141">
+      <c r="C41" s="139">
         <v>44079</v>
       </c>
       <c r="D41" s="21" t="s">
@@ -5761,7 +5782,7 @@
         <v>150</v>
       </c>
       <c r="O45" s="106"/>
-      <c r="P45" s="140" t="s">
+      <c r="P45" s="141" t="s">
         <v>337</v>
       </c>
       <c r="Q45" s="123"/>
@@ -5784,7 +5805,7 @@
         <v>347</v>
       </c>
       <c r="O46" s="106"/>
-      <c r="P46" s="140"/>
+      <c r="P46" s="141"/>
       <c r="Q46" s="123"/>
     </row>
     <row r="47" spans="3:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5805,7 +5826,7 @@
         <v>346</v>
       </c>
       <c r="O47" s="106"/>
-      <c r="P47" s="140"/>
+      <c r="P47" s="141"/>
       <c r="Q47" s="123"/>
     </row>
     <row r="48" spans="3:17" ht="14.25" x14ac:dyDescent="0.2">
@@ -5826,7 +5847,7 @@
         <v>16</v>
       </c>
       <c r="O48" s="106"/>
-      <c r="P48" s="140"/>
+      <c r="P48" s="141"/>
       <c r="Q48" s="123"/>
     </row>
     <row r="49" spans="7:17" ht="14.25" x14ac:dyDescent="0.2">
@@ -5847,7 +5868,7 @@
         <v>343</v>
       </c>
       <c r="O49" s="106"/>
-      <c r="P49" s="140"/>
+      <c r="P49" s="141"/>
       <c r="Q49" s="123" t="s">
         <v>348</v>
       </c>
@@ -6003,7 +6024,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
